--- a/services.xlsx
+++ b/services.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emad/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emad/projects/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A556966B-90EE-ED45-95E6-334297AC820A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC101C1-7771-2549-A6C4-49D9DDB0A65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="33720" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,11 +210,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,15 +527,15 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="4" width="60.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="60.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -546,347 +551,347 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>350.83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>414.89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>79.94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>352.36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>157.87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>338.75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>429.1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>378.69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>411.83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>314.43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>226.91</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>156.54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>272.95999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>150.72</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>64.97</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>340.2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>114.27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>284.24</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>334.28</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>318.66000000000003</v>
       </c>
     </row>
